--- a/planejamentos e testes/Analisador Sintático - Teste/Gramática/Tabela Sintática.xlsx
+++ b/planejamentos e testes/Analisador Sintático - Teste/Gramática/Tabela Sintática.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="179">
   <si>
     <t>token_identificador</t>
   </si>
@@ -367,9 +367,6 @@
     <t>&lt;decl_comandos&gt; retorno &lt;return_deriva&gt;;</t>
   </si>
   <si>
-    <t>se (&lt;exp_rel_bol&gt;) {&lt;decl_comandos&gt;}</t>
-  </si>
-  <si>
     <t>senão {&lt;decl_comandos&gt;}</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
   </si>
   <si>
     <t>leia (&lt;exp_leia&gt;);</t>
-  </si>
-  <si>
-    <t>&lt;deriva_param&gt; (&lt;param_deriva&gt;)</t>
   </si>
   <si>
     <t>&lt;matriz_param&gt;</t>
@@ -450,21 +444,12 @@
     <t>[]</t>
   </si>
   <si>
-    <t>&lt;variaveis_declaracao&gt; &lt;decl_comandos&gt; retorno &lt;return_deriva&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">token_identificador &lt;identificador_param_deriva&gt; </t>
   </si>
   <si>
     <t>algoritmo {&lt;deriva_cont_principal&gt; }</t>
   </si>
   <si>
-    <t>&lt;declaracao_var&gt; &lt;decl_comandos&gt;</t>
-  </si>
-  <si>
-    <t>para (token_identificador = token_inteiro; token_identificador &lt;op_relacional&gt; token_inteiro; token_identificador &lt;op_cont&gt;;) {&lt;decl_comandos&gt;}</t>
-  </si>
-  <si>
     <t>enquanto (&lt;exp_rel_bol&gt;) { &lt;decl_comandos&gt;  }</t>
   </si>
   <si>
@@ -504,9 +489,6 @@
     <t>&amp;&amp;</t>
   </si>
   <si>
-    <t>token_identificador = &lt;exp_simples&gt;</t>
-  </si>
-  <si>
     <t>&lt;op_ss&gt;&lt;termo&gt;&lt;termo_deriva&gt;</t>
   </si>
   <si>
@@ -538,6 +520,63 @@
   </si>
   <si>
     <t>(+)</t>
+  </si>
+  <si>
+    <t>(==)</t>
+  </si>
+  <si>
+    <t>(!=)</t>
+  </si>
+  <si>
+    <t>(++)</t>
+  </si>
+  <si>
+    <t>(&amp;&amp;)</t>
+  </si>
+  <si>
+    <t>(||)</t>
+  </si>
+  <si>
+    <t>(&gt;=)</t>
+  </si>
+  <si>
+    <t>(&lt;=)</t>
+  </si>
+  <si>
+    <t>&lt;deriva_param&gt;</t>
+  </si>
+  <si>
+    <t>&lt;decl_comandos&gt;retorno&lt;return_deriva&gt; ;</t>
+  </si>
+  <si>
+    <t>token_identificador = &lt;exp_simples&gt; ;</t>
+  </si>
+  <si>
+    <t>&lt;comandos&gt;&lt;decl_comandos&gt;</t>
+  </si>
+  <si>
+    <t>tok301</t>
+  </si>
+  <si>
+    <t>&lt;variaveis_declaracao&gt; &lt;decl_comandos&gt; retorno &lt;return_deriva&gt;;</t>
+  </si>
+  <si>
+    <t>&lt;variaveis_declaracao&gt;&lt;decl_comandos&gt;</t>
+  </si>
+  <si>
+    <t>se (&lt;exp_rel_bol&gt;) {&lt;decl_comandos&gt;}&lt;senao_decl&gt;</t>
+  </si>
+  <si>
+    <t>para (token_identificador = token_inteiro; token_identificador &lt;op_relacional&gt; token_inteiro; token_identificador &lt;op_cont&gt;) {&lt;decl_comandos&gt;}</t>
+  </si>
+  <si>
+    <t>&lt;op_booleano&gt;&lt;exp_simples&gt;&lt;op_relacional&gt;&lt;exp_simples&gt;&lt;exp_rel_deriva&gt;</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU60"/>
+  <dimension ref="A1:BA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1066,7 +1105,7 @@
     <col min="27" max="27" width="21.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" thickBot="1">
+    <row r="1" spans="1:53" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1203,8 +1242,29 @@
       <c r="AT1" s="16">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" thickBot="1">
+      <c r="AU1" s="16">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="16">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="16">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="16">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="16">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="16">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" thickBot="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1341,8 +1401,29 @@
       <c r="AT2" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" ht="108.75" thickBot="1">
+      <c r="AU2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ2" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA2" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" ht="108.75" thickBot="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1357,10 +1438,10 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1398,7 +1479,7 @@
       <c r="AS3" s="17"/>
       <c r="AT3" s="17"/>
     </row>
-    <row r="4" spans="1:46" ht="90.75" thickBot="1">
+    <row r="4" spans="1:53" ht="90.75" thickBot="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1415,7 +1496,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>77</v>
@@ -1456,7 +1537,7 @@
       <c r="AS4" s="17"/>
       <c r="AT4" s="17"/>
     </row>
-    <row r="5" spans="1:46" ht="36.75" thickBot="1">
+    <row r="5" spans="1:53" ht="36.75" thickBot="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1472,7 +1553,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1510,7 +1591,7 @@
       <c r="AS5" s="17"/>
       <c r="AT5" s="17"/>
     </row>
-    <row r="6" spans="1:46" ht="54.75" thickBot="1">
+    <row r="6" spans="1:53" ht="54.75" thickBot="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1527,7 +1608,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1564,7 +1645,7 @@
       <c r="AS6" s="17"/>
       <c r="AT6" s="17"/>
     </row>
-    <row r="7" spans="1:46" ht="198.75" thickBot="1">
+    <row r="7" spans="1:53" ht="198.75" thickBot="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1582,7 +1663,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>77</v>
@@ -1620,7 +1701,7 @@
       <c r="AS7" s="17"/>
       <c r="AT7" s="17"/>
     </row>
-    <row r="8" spans="1:46" ht="54.75" thickBot="1">
+    <row r="8" spans="1:53" ht="54.75" thickBot="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1639,7 +1720,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1674,7 +1755,7 @@
       <c r="AS8" s="17"/>
       <c r="AT8" s="17"/>
     </row>
-    <row r="9" spans="1:46" ht="54.75" thickBot="1">
+    <row r="9" spans="1:53" ht="54.75" thickBot="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1694,19 +1775,19 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1738,7 +1819,7 @@
       <c r="AS9" s="17"/>
       <c r="AT9" s="17"/>
     </row>
-    <row r="10" spans="1:46" ht="108.75" thickBot="1">
+    <row r="10" spans="1:53" ht="108.75" thickBot="1">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1758,19 +1839,19 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1802,7 +1883,7 @@
       <c r="AS10" s="17"/>
       <c r="AT10" s="17"/>
     </row>
-    <row r="11" spans="1:46" ht="90.75" thickBot="1">
+    <row r="11" spans="1:53" ht="90.75" thickBot="1">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1810,7 +1891,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1824,19 +1905,19 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -1868,7 +1949,7 @@
       <c r="AS11" s="17"/>
       <c r="AT11" s="17"/>
     </row>
-    <row r="12" spans="1:46" ht="72.75" thickBot="1">
+    <row r="12" spans="1:53" ht="72.75" thickBot="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1888,19 +1969,19 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1930,7 +2011,7 @@
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
     </row>
-    <row r="13" spans="1:46" thickBot="1">
+    <row r="13" spans="1:53" thickBot="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1992,7 +2073,7 @@
       <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
     </row>
-    <row r="14" spans="1:46" thickBot="1">
+    <row r="14" spans="1:53" thickBot="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2056,7 +2137,7 @@
       <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
     </row>
-    <row r="15" spans="1:46" thickBot="1">
+    <row r="15" spans="1:53" thickBot="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2108,7 +2189,7 @@
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
     </row>
-    <row r="16" spans="1:46" ht="43.5" thickBot="1">
+    <row r="16" spans="1:53" ht="43.5" thickBot="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2145,7 +2226,7 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
@@ -2221,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2331,7 +2412,9 @@
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2341,7 +2424,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2521,7 +2604,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>20</v>
@@ -2589,7 +2672,9 @@
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2649,7 +2734,7 @@
       </c>
       <c r="AU24" s="17"/>
     </row>
-    <row r="25" spans="1:47" ht="90.75" thickBot="1">
+    <row r="25" spans="1:47" ht="105.75" thickBot="1">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -2695,7 +2780,7 @@
       <c r="AM25" s="14"/>
       <c r="AN25" s="14"/>
       <c r="AO25" s="17" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="AP25" s="17"/>
       <c r="AQ25" s="17"/>
@@ -2755,7 +2840,7 @@
       <c r="AN26" s="14"/>
       <c r="AO26" s="17"/>
       <c r="AP26" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ26" s="17"/>
       <c r="AR26" s="17"/>
@@ -2808,13 +2893,11 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="14"/>
       <c r="AN27" s="14"/>
-      <c r="AO27" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="AO27" s="17"/>
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
@@ -2868,7 +2951,7 @@
       <c r="AO28" s="17"/>
       <c r="AP28" s="17"/>
       <c r="AQ28" s="17" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="AR28" s="17"/>
       <c r="AS28" s="17"/>
@@ -2925,7 +3008,7 @@
       <c r="AQ29" s="17"/>
       <c r="AR29" s="17"/>
       <c r="AS29" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT29" s="17"/>
       <c r="AU29" s="17"/>
@@ -2938,15 +3021,15 @@
         <v>35</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2963,7 +3046,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>77</v>
@@ -2973,10 +3056,10 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AC30" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
@@ -3036,7 +3119,9 @@
       <c r="V31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="W31" s="5"/>
+      <c r="W31" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
@@ -3060,7 +3145,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="14"/>
       <c r="AN31" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AO31" s="17"/>
       <c r="AP31" s="17"/>
@@ -3078,13 +3163,13 @@
         <v>37</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>39</v>
@@ -3107,7 +3192,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
@@ -3135,7 +3220,7 @@
       <c r="AT32" s="17"/>
       <c r="AU32" s="17"/>
     </row>
-    <row r="33" spans="1:47" ht="36.75" thickBot="1">
+    <row r="33" spans="1:53" ht="36.75" thickBot="1">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -3166,7 +3251,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="14"/>
@@ -3180,7 +3265,9 @@
       <c r="AH33" s="14"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
+      <c r="AK33" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="AL33" s="14"/>
       <c r="AM33" s="14"/>
       <c r="AN33" s="14"/>
@@ -3192,7 +3279,7 @@
       <c r="AT33" s="17"/>
       <c r="AU33" s="17"/>
     </row>
-    <row r="34" spans="1:47" thickBot="1">
+    <row r="34" spans="1:53" thickBot="1">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -3223,7 +3310,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AA34" s="5"/>
       <c r="AB34" s="14"/>
@@ -3249,7 +3336,7 @@
       <c r="AT34" s="17"/>
       <c r="AU34" s="17"/>
     </row>
-    <row r="35" spans="1:47" ht="45.75" thickBot="1">
+    <row r="35" spans="1:53" ht="45.75" thickBot="1">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -3300,10 +3387,10 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
       <c r="AT35" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:47" ht="54.75" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" ht="54.75" thickBot="1">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -3311,7 +3398,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3358,7 +3445,7 @@
       <c r="AR36" s="17"/>
       <c r="AS36" s="17"/>
     </row>
-    <row r="37" spans="1:47" ht="43.5" thickBot="1">
+    <row r="37" spans="1:53" ht="43.5" thickBot="1">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -3387,7 +3474,9 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
+      <c r="W37" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
@@ -3405,7 +3494,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="14"/>
       <c r="AN37" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AO37" s="17"/>
       <c r="AP37" s="17"/>
@@ -3414,7 +3503,7 @@
       <c r="AS37" s="17"/>
       <c r="AT37" s="17"/>
     </row>
-    <row r="38" spans="1:47" ht="54.75" thickBot="1">
+    <row r="38" spans="1:53" ht="54.75" thickBot="1">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -3422,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3468,7 +3557,7 @@
       <c r="AS38" s="17"/>
       <c r="AT38" s="17"/>
     </row>
-    <row r="39" spans="1:47" ht="114.75" thickBot="1">
+    <row r="39" spans="1:53" ht="114.75" thickBot="1">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -3476,10 +3565,10 @@
         <v>47</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3499,7 +3588,7 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
@@ -3507,10 +3596,10 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AC39" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
@@ -3530,7 +3619,7 @@
       <c r="AS39" s="17"/>
       <c r="AT39" s="17"/>
     </row>
-    <row r="40" spans="1:47" ht="143.25" thickBot="1">
+    <row r="40" spans="1:53" ht="143.25" thickBot="1">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -3557,7 +3646,9 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
+      <c r="W40" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="X40" s="5" t="s">
         <v>77</v>
       </c>
@@ -3577,10 +3668,10 @@
       <c r="AJ40" s="14"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AM40" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AN40" s="14"/>
       <c r="AO40" s="17"/>
@@ -3589,8 +3680,14 @@
       <c r="AR40" s="17"/>
       <c r="AS40" s="17"/>
       <c r="AT40" s="17"/>
-    </row>
-    <row r="41" spans="1:47" ht="43.5" thickBot="1">
+      <c r="AX40" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY40" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" ht="43.5" thickBot="1">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -3633,10 +3730,10 @@
         <v>93</v>
       </c>
       <c r="AH41" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AI41" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AJ41" s="14"/>
       <c r="AK41" s="14"/>
@@ -3649,8 +3746,20 @@
       <c r="AR41" s="17"/>
       <c r="AS41" s="17"/>
       <c r="AT41" s="17"/>
-    </row>
-    <row r="42" spans="1:47" thickBot="1">
+      <c r="AU41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" thickBot="1">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -3696,7 +3805,7 @@
         <v>94</v>
       </c>
       <c r="AM42" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AN42" s="14"/>
       <c r="AO42" s="17"/>
@@ -3705,8 +3814,14 @@
       <c r="AR42" s="17"/>
       <c r="AS42" s="17"/>
       <c r="AT42" s="17"/>
-    </row>
-    <row r="43" spans="1:47" ht="36.75" thickBot="1">
+      <c r="AX42" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" ht="36.75" thickBot="1">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -3714,7 +3829,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3760,7 +3875,7 @@
       <c r="AS43" s="17"/>
       <c r="AT43" s="17"/>
     </row>
-    <row r="44" spans="1:47" ht="57.75" thickBot="1">
+    <row r="44" spans="1:53" ht="57.75" thickBot="1">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -3768,10 +3883,10 @@
         <v>52</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3791,7 +3906,7 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
@@ -3799,10 +3914,10 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AC44" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
@@ -3822,7 +3937,7 @@
       <c r="AS44" s="17"/>
       <c r="AT44" s="17"/>
     </row>
-    <row r="45" spans="1:47" ht="72" thickBot="1">
+    <row r="45" spans="1:53" ht="72" thickBot="1">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -3859,10 +3974,10 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AC45" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AD45" s="14"/>
       <c r="AE45" s="14"/>
@@ -3879,7 +3994,9 @@
         <v>77</v>
       </c>
       <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
+      <c r="AK45" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="AL45" s="14" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4010,29 @@
       <c r="AR45" s="17"/>
       <c r="AS45" s="17"/>
       <c r="AT45" s="17"/>
-    </row>
-    <row r="46" spans="1:47" thickBot="1">
+      <c r="AU45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" thickBot="1">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -3927,10 +4065,10 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AD46" s="14"/>
       <c r="AE46" s="14"/>
@@ -3950,7 +4088,7 @@
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
     </row>
-    <row r="47" spans="1:47" thickBot="1">
+    <row r="47" spans="1:53" thickBot="1">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -4005,8 +4143,11 @@
       <c r="AR47" s="17"/>
       <c r="AS47" s="17"/>
       <c r="AT47" s="17"/>
-    </row>
-    <row r="48" spans="1:47" ht="36.75" thickBot="1">
+      <c r="AW47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" ht="36.75" thickBot="1">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -4014,10 +4155,10 @@
         <v>56</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -4037,7 +4178,7 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -4045,7 +4186,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
@@ -4065,7 +4206,7 @@
       <c r="AS48" s="17"/>
       <c r="AT48" s="17"/>
     </row>
-    <row r="49" spans="1:46" ht="36.75" thickBot="1">
+    <row r="49" spans="1:53" ht="36.75" thickBot="1">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -4073,10 +4214,10 @@
         <v>57</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4096,7 +4237,7 @@
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -4105,7 +4246,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="14"/>
       <c r="AC49" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
@@ -4125,7 +4266,7 @@
       <c r="AS49" s="17"/>
       <c r="AT49" s="17"/>
     </row>
-    <row r="50" spans="1:46" ht="36.75" thickBot="1">
+    <row r="50" spans="1:53" ht="36.75" thickBot="1">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -4133,10 +4274,10 @@
         <v>58</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -4156,7 +4297,7 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -4183,7 +4324,7 @@
       <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
     </row>
-    <row r="51" spans="1:46" ht="57.75" thickBot="1">
+    <row r="51" spans="1:53" ht="57.75" thickBot="1">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -4226,10 +4367,10 @@
         <v>77</v>
       </c>
       <c r="AD51" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AE51" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AF51" s="14" t="s">
         <v>77</v>
@@ -4244,7 +4385,9 @@
         <v>77</v>
       </c>
       <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
+      <c r="AK51" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="AL51" s="14" t="s">
         <v>77</v>
       </c>
@@ -4258,8 +4401,29 @@
       <c r="AR51" s="17"/>
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
-    </row>
-    <row r="52" spans="1:46" thickBot="1">
+      <c r="AU51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" thickBot="1">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -4315,7 +4479,7 @@
       <c r="AS52" s="17"/>
       <c r="AT52" s="17"/>
     </row>
-    <row r="53" spans="1:46" ht="54.75" thickBot="1">
+    <row r="53" spans="1:53" ht="54.75" thickBot="1">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -4323,7 +4487,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>1</v>
@@ -4346,7 +4510,7 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
@@ -4373,7 +4537,7 @@
       <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
     </row>
-    <row r="54" spans="1:46" ht="143.25" thickBot="1">
+    <row r="54" spans="1:53" ht="143.25" thickBot="1">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -4430,10 +4594,10 @@
       <c r="AJ54" s="14"/>
       <c r="AK54" s="14"/>
       <c r="AL54" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AM54" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AN54" s="14"/>
       <c r="AO54" s="17"/>
@@ -4442,8 +4606,14 @@
       <c r="AR54" s="17"/>
       <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
-    </row>
-    <row r="55" spans="1:46" ht="38.25" thickBot="1">
+      <c r="AX54" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY54" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" ht="38.25" thickBot="1">
       <c r="A55" s="19">
         <v>53</v>
       </c>
@@ -4476,7 +4646,7 @@
       <c r="X55" s="19"/>
       <c r="Y55" s="19"/>
       <c r="Z55" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AA55" s="19"/>
       <c r="AB55" s="14"/>
@@ -4501,12 +4671,12 @@
       <c r="AS55" s="17"/>
       <c r="AT55" s="17"/>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:53">
       <c r="A56" s="19">
         <v>54</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -4528,11 +4698,13 @@
       <c r="T56" s="19"/>
       <c r="U56" s="19"/>
       <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
+      <c r="W56" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="X56" s="19"/>
       <c r="Y56" s="19"/>
       <c r="Z56" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA56" s="19"/>
       <c r="AB56" s="17"/>
@@ -4547,7 +4719,9 @@
       <c r="AK56" s="17"/>
       <c r="AL56" s="17"/>
       <c r="AM56" s="17"/>
-      <c r="AN56" s="17"/>
+      <c r="AN56" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="AO56" s="17"/>
       <c r="AP56" s="17"/>
       <c r="AQ56" s="17"/>
@@ -4555,14 +4729,16 @@
       <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
     </row>
-    <row r="57" spans="1:46" ht="60">
+    <row r="57" spans="1:53" ht="60">
       <c r="A57" s="19">
         <v>55</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
@@ -4621,7 +4797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:46" ht="37.5">
+    <row r="58" spans="1:53" ht="56.25">
       <c r="A58" s="19">
         <v>56</v>
       </c>
@@ -4638,7 +4814,7 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
@@ -4687,7 +4863,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:46" ht="45">
+    <row r="59" spans="1:53" ht="45">
       <c r="A59" s="19">
         <v>57</v>
       </c>
@@ -4720,21 +4896,31 @@
       <c r="X59" s="19"/>
       <c r="Y59" s="19"/>
       <c r="Z59" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA59" s="19"/>
-      <c r="AB59" s="17"/>
+      <c r="AB59" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="17"/>
       <c r="AF59" s="17"/>
-      <c r="AG59" s="17"/>
-      <c r="AH59" s="17"/>
-      <c r="AI59" s="17"/>
+      <c r="AG59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI59" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="AJ59" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK59" s="17"/>
+        <v>141</v>
+      </c>
+      <c r="AK59" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="AL59" s="17"/>
       <c r="AM59" s="17"/>
       <c r="AN59" s="17" t="s">
@@ -4746,32 +4932,56 @@
       <c r="AR59" s="17"/>
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
-    </row>
-    <row r="60" spans="1:46" ht="75">
+      <c r="AU59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" ht="75">
       <c r="A60" s="8">
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N60" s="19"/>
       <c r="O60" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q60" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="P60" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q60" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="R60" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S60" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="W60" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
